--- a/resources/excels/09-Koh-Kong.xlsx
+++ b/resources/excels/09-Koh-Kong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="3320" windowWidth="17820" windowHeight="11840" tabRatio="204" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="8520" yWindow="3320" windowWidth="17820" windowHeight="11840" tabRatio="204" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="258">
   <si>
     <t>RBHraCaNacRkkm&lt;úCa</t>
   </si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>09-008</t>
+  </si>
+  <si>
+    <t>sμac´manC&amp;y</t>
   </si>
 </sst>
 </file>
@@ -862,13 +865,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1227,65 +1231,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1301,17 +1305,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1700,15 +1704,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1742,66 +1746,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1812,17 +1816,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2006,15 +2010,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2048,65 +2052,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2117,17 +2121,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2458,10 +2462,10 @@
       <c r="M18" s="2">
         <v>28</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="8">
         <v>3038</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="2">
         <v>67</v>
       </c>
@@ -2476,16 +2480,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2500,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2521,70 +2525,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
+      <c r="A8" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2596,23 +2600,23 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3160,16 +3164,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3202,65 +3206,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3271,17 +3275,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3793,15 +3797,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3835,20 +3839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
@@ -3856,31 +3860,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -4133,65 +4137,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4202,17 +4206,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -4519,15 +4523,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4562,65 +4566,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4636,17 +4640,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5076,15 +5080,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5118,20 +5122,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
@@ -5139,31 +5143,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -5623,66 +5627,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -5693,17 +5697,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -5885,15 +5889,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5928,68 +5932,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -6000,18 +6004,18 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -6178,10 +6182,10 @@
       <c r="M14" s="2">
         <v>74</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>4332</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="2">
         <v>115</v>
       </c>
@@ -6196,16 +6200,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6237,65 +6241,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -6306,17 +6310,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -6580,15 +6584,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6623,65 +6627,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -6697,17 +6701,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7178,15 +7182,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7221,65 +7225,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -7290,17 +7294,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -7564,15 +7568,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7609,67 +7613,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -7680,17 +7684,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -7915,15 +7919,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7960,65 +7964,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -8029,17 +8033,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -8467,15 +8471,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8510,67 +8514,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -8581,17 +8585,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -9021,15 +9025,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9064,65 +9068,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -9133,17 +9137,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -9653,15 +9657,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9695,20 +9699,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
@@ -9716,31 +9720,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -9997,69 +10001,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="P1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="Q2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="Q3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -10075,23 +10079,23 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -10223,10 +10227,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2">
         <v>108</v>
       </c>
@@ -10353,17 +10357,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:O5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10400,68 +10404,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -10472,17 +10476,17 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -10666,15 +10670,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10711,70 +10715,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -10785,18 +10789,18 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -10939,15 +10943,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10980,68 +10984,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -11052,17 +11056,17 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -11246,15 +11250,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11292,66 +11296,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -11362,17 +11366,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -11554,15 +11558,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11599,70 +11603,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -11673,18 +11677,18 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -11827,15 +11831,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:R3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11871,68 +11875,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -11943,18 +11947,18 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -12121,10 +12125,10 @@
       <c r="M14" s="2">
         <v>17</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>1915</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="2">
         <v>37</v>
       </c>
@@ -12139,16 +12143,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12186,66 +12190,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -12261,23 +12265,23 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -12661,16 +12665,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12706,66 +12710,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -12776,17 +12780,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -13052,15 +13056,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13096,67 +13100,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -13167,17 +13171,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -13402,15 +13406,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13446,65 +13450,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -13515,17 +13519,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -13955,15 +13959,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13996,65 +14000,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -14065,17 +14069,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -14587,15 +14591,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14628,65 +14632,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -14702,17 +14706,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -15019,15 +15023,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F10:J10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15064,68 +15068,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -15136,17 +15140,17 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="6" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -15289,15 +15293,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15333,66 +15337,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -15403,17 +15407,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -15639,15 +15643,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15662,7 +15666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -15683,67 +15687,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="O1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -15759,23 +15763,23 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
@@ -15954,16 +15958,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C5:N5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15996,65 +16000,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -16065,17 +16069,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="O9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -16339,15 +16343,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="F9:J9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
